--- a/natmiOut/OldD2/LR-pairs_lrc2p/Cirbp-Trem1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Cirbp-Trem1.xlsx
@@ -537,52 +537,52 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.5317133900451</v>
+        <v>13.533835</v>
       </c>
       <c r="H2">
-        <v>13.5317133900451</v>
+        <v>27.06767</v>
       </c>
       <c r="I2">
-        <v>0.2485747232868585</v>
+        <v>0.2387004729612817</v>
       </c>
       <c r="J2">
-        <v>0.2485747232868585</v>
+        <v>0.188326562212335</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.23604195391044</v>
+        <v>5.889399666666667</v>
       </c>
       <c r="N2">
-        <v>3.23604195391044</v>
+        <v>17.668199</v>
       </c>
       <c r="O2">
-        <v>0.7472984039514368</v>
+        <v>0.8160192454225522</v>
       </c>
       <c r="P2">
-        <v>0.7472984039514368</v>
+        <v>0.8160192454225521</v>
       </c>
       <c r="Q2">
-        <v>43.78919223847761</v>
+        <v>79.70616333772166</v>
       </c>
       <c r="R2">
-        <v>43.78919223847761</v>
+        <v>478.23698002633</v>
       </c>
       <c r="S2">
-        <v>0.1857594939749394</v>
+        <v>0.1947841798278714</v>
       </c>
       <c r="T2">
-        <v>0.1857594939749394</v>
+        <v>0.153678099189533</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.5317133900451</v>
+        <v>13.533835</v>
       </c>
       <c r="H3">
-        <v>13.5317133900451</v>
+        <v>27.06767</v>
       </c>
       <c r="I3">
-        <v>0.2485747232868585</v>
+        <v>0.2387004729612817</v>
       </c>
       <c r="J3">
-        <v>0.2485747232868585</v>
+        <v>0.188326562212335</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.09427902202026</v>
+        <v>1.327831666666667</v>
       </c>
       <c r="N3">
-        <v>1.09427902202026</v>
+        <v>3.983495</v>
       </c>
       <c r="O3">
-        <v>0.2527015960485633</v>
+        <v>0.1839807545774479</v>
       </c>
       <c r="P3">
-        <v>0.2527015960485633</v>
+        <v>0.1839807545774478</v>
       </c>
       <c r="Q3">
-        <v>14.80747009471701</v>
+        <v>17.97065468444167</v>
       </c>
       <c r="R3">
-        <v>14.80747009471701</v>
+        <v>107.82392810665</v>
       </c>
       <c r="S3">
-        <v>0.06281522931191913</v>
+        <v>0.0439162931334103</v>
       </c>
       <c r="T3">
-        <v>0.06281522931191913</v>
+        <v>0.03464846302280208</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.48481722457107</v>
+        <v>4.783142666666667</v>
       </c>
       <c r="H4">
-        <v>4.48481722457107</v>
+        <v>14.349428</v>
       </c>
       <c r="I4">
-        <v>0.08238514728002047</v>
+        <v>0.08436178043951471</v>
       </c>
       <c r="J4">
-        <v>0.08238514728002047</v>
+        <v>0.09983786727684438</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.23604195391044</v>
+        <v>5.889399666666667</v>
       </c>
       <c r="N4">
-        <v>3.23604195391044</v>
+        <v>17.668199</v>
       </c>
       <c r="O4">
-        <v>0.7472984039514368</v>
+        <v>0.8160192454225522</v>
       </c>
       <c r="P4">
-        <v>0.7472984039514368</v>
+        <v>0.8160192454225521</v>
       </c>
       <c r="Q4">
-        <v>14.51305669433216</v>
+        <v>28.16983882668578</v>
       </c>
       <c r="R4">
-        <v>14.51305669433216</v>
+        <v>253.528549440172</v>
       </c>
       <c r="S4">
-        <v>0.06156628907166335</v>
+        <v>0.06884083641675583</v>
       </c>
       <c r="T4">
-        <v>0.06156628907166335</v>
+        <v>0.08146962111984746</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.48481722457107</v>
+        <v>4.783142666666667</v>
       </c>
       <c r="H5">
-        <v>4.48481722457107</v>
+        <v>14.349428</v>
       </c>
       <c r="I5">
-        <v>0.08238514728002047</v>
+        <v>0.08436178043951471</v>
       </c>
       <c r="J5">
-        <v>0.08238514728002047</v>
+        <v>0.09983786727684438</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.09427902202026</v>
+        <v>1.327831666666667</v>
       </c>
       <c r="N5">
-        <v>1.09427902202026</v>
+        <v>3.983495</v>
       </c>
       <c r="O5">
-        <v>0.2527015960485633</v>
+        <v>0.1839807545774479</v>
       </c>
       <c r="P5">
-        <v>0.2527015960485633</v>
+        <v>0.1839807545774478</v>
       </c>
       <c r="Q5">
-        <v>4.907641406443247</v>
+        <v>6.351208298984445</v>
       </c>
       <c r="R5">
-        <v>4.907641406443247</v>
+        <v>57.16087469086001</v>
       </c>
       <c r="S5">
-        <v>0.02081885820835713</v>
+        <v>0.0155209440227589</v>
       </c>
       <c r="T5">
-        <v>0.02081885820835713</v>
+        <v>0.01836824615699692</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.11503899947208</v>
+        <v>3.650526666666666</v>
       </c>
       <c r="H6">
-        <v>3.11503899947208</v>
+        <v>10.95158</v>
       </c>
       <c r="I6">
-        <v>0.05722260995353259</v>
+        <v>0.06438547846128644</v>
       </c>
       <c r="J6">
-        <v>0.05722260995353259</v>
+        <v>0.07619693206668192</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.23604195391044</v>
+        <v>5.889399666666667</v>
       </c>
       <c r="N6">
-        <v>3.23604195391044</v>
+        <v>17.668199</v>
       </c>
       <c r="O6">
-        <v>0.7472984039514368</v>
+        <v>0.8160192454225522</v>
       </c>
       <c r="P6">
-        <v>0.7472984039514368</v>
+        <v>0.8160192454225521</v>
       </c>
       <c r="Q6">
-        <v>10.08039689035885</v>
+        <v>21.49941053382445</v>
       </c>
       <c r="R6">
-        <v>10.08039689035885</v>
+        <v>193.49469480442</v>
       </c>
       <c r="S6">
-        <v>0.0427623650882105</v>
+        <v>0.05253978955014894</v>
       </c>
       <c r="T6">
-        <v>0.0427623650882105</v>
+        <v>0.06217816300856725</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.11503899947208</v>
+        <v>3.650526666666666</v>
       </c>
       <c r="H7">
-        <v>3.11503899947208</v>
+        <v>10.95158</v>
       </c>
       <c r="I7">
-        <v>0.05722260995353259</v>
+        <v>0.06438547846128644</v>
       </c>
       <c r="J7">
-        <v>0.05722260995353259</v>
+        <v>0.07619693206668192</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.09427902202026</v>
+        <v>1.327831666666667</v>
       </c>
       <c r="N7">
-        <v>1.09427902202026</v>
+        <v>3.983495</v>
       </c>
       <c r="O7">
-        <v>0.2527015960485633</v>
+        <v>0.1839807545774479</v>
       </c>
       <c r="P7">
-        <v>0.2527015960485633</v>
+        <v>0.1839807545774478</v>
       </c>
       <c r="Q7">
-        <v>3.408721829897277</v>
+        <v>4.847284908011111</v>
       </c>
       <c r="R7">
-        <v>3.408721829897277</v>
+        <v>43.62556417210001</v>
       </c>
       <c r="S7">
-        <v>0.01446024486532209</v>
+        <v>0.0118456889111375</v>
       </c>
       <c r="T7">
-        <v>0.01446024486532209</v>
+        <v>0.01401876905811467</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.057953510581459</v>
+        <v>8.194588000000001</v>
       </c>
       <c r="H8">
-        <v>8.057953510581459</v>
+        <v>24.583764</v>
       </c>
       <c r="I8">
-        <v>0.1480229078473322</v>
+        <v>0.1445305067870891</v>
       </c>
       <c r="J8">
-        <v>0.1480229078473322</v>
+        <v>0.1710444881424727</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.23604195391044</v>
+        <v>5.889399666666667</v>
       </c>
       <c r="N8">
-        <v>3.23604195391044</v>
+        <v>17.668199</v>
       </c>
       <c r="O8">
-        <v>0.7472984039514368</v>
+        <v>0.8160192454225522</v>
       </c>
       <c r="P8">
-        <v>0.7472984039514368</v>
+        <v>0.8160192454225521</v>
       </c>
       <c r="Q8">
-        <v>26.07587562290152</v>
+        <v>48.26120383567068</v>
       </c>
       <c r="R8">
-        <v>26.07587562290152</v>
+        <v>434.3508345210361</v>
       </c>
       <c r="S8">
-        <v>0.1106172827825619</v>
+        <v>0.1179396750889395</v>
       </c>
       <c r="T8">
-        <v>0.1106172827825619</v>
+        <v>0.1395755941477072</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.057953510581459</v>
+        <v>8.194588000000001</v>
       </c>
       <c r="H9">
-        <v>8.057953510581459</v>
+        <v>24.583764</v>
       </c>
       <c r="I9">
-        <v>0.1480229078473322</v>
+        <v>0.1445305067870891</v>
       </c>
       <c r="J9">
-        <v>0.1480229078473322</v>
+        <v>0.1710444881424727</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.09427902202026</v>
+        <v>1.327831666666667</v>
       </c>
       <c r="N9">
-        <v>1.09427902202026</v>
+        <v>3.983495</v>
       </c>
       <c r="O9">
-        <v>0.2527015960485633</v>
+        <v>0.1839807545774479</v>
       </c>
       <c r="P9">
-        <v>0.2527015960485633</v>
+        <v>0.1839807545774478</v>
       </c>
       <c r="Q9">
-        <v>8.8176494870438</v>
+        <v>10.88103344168667</v>
       </c>
       <c r="R9">
-        <v>8.8176494870438</v>
+        <v>97.92930097518001</v>
       </c>
       <c r="S9">
-        <v>0.03740562506477024</v>
+        <v>0.0265908316981496</v>
       </c>
       <c r="T9">
-        <v>0.03740562506477024</v>
+        <v>0.03146889399476545</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.4223419055628</v>
+        <v>13.70308866666667</v>
       </c>
       <c r="H10">
-        <v>12.4223419055628</v>
+        <v>41.10926600000001</v>
       </c>
       <c r="I10">
-        <v>0.2281958029070943</v>
+        <v>0.2416856527188127</v>
       </c>
       <c r="J10">
-        <v>0.2281958029070943</v>
+        <v>0.2860226514085782</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.23604195391044</v>
+        <v>5.889399666666667</v>
       </c>
       <c r="N10">
-        <v>3.23604195391044</v>
+        <v>17.668199</v>
       </c>
       <c r="O10">
-        <v>0.7472984039514368</v>
+        <v>0.8160192454225522</v>
       </c>
       <c r="P10">
-        <v>0.7472984039514368</v>
+        <v>0.8160192454225521</v>
       </c>
       <c r="Q10">
-        <v>40.19921957222098</v>
+        <v>80.70296582577045</v>
       </c>
       <c r="R10">
-        <v>40.19921957222098</v>
+        <v>726.3266924319341</v>
       </c>
       <c r="S10">
-        <v>0.1705303593008882</v>
+        <v>0.1972201439610626</v>
       </c>
       <c r="T10">
-        <v>0.1705303593008882</v>
+        <v>0.2333999881761857</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.4223419055628</v>
+        <v>13.70308866666667</v>
       </c>
       <c r="H11">
-        <v>12.4223419055628</v>
+        <v>41.10926600000001</v>
       </c>
       <c r="I11">
-        <v>0.2281958029070943</v>
+        <v>0.2416856527188127</v>
       </c>
       <c r="J11">
-        <v>0.2281958029070943</v>
+        <v>0.2860226514085782</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.09427902202026</v>
+        <v>1.327831666666667</v>
       </c>
       <c r="N11">
-        <v>1.09427902202026</v>
+        <v>3.983495</v>
       </c>
       <c r="O11">
-        <v>0.2527015960485633</v>
+        <v>0.1839807545774479</v>
       </c>
       <c r="P11">
-        <v>0.2527015960485633</v>
+        <v>0.1839807545774478</v>
       </c>
       <c r="Q11">
-        <v>13.59350815162055</v>
+        <v>18.19539506274111</v>
       </c>
       <c r="R11">
-        <v>13.59350815162055</v>
+        <v>163.75855556467</v>
       </c>
       <c r="S11">
-        <v>0.0576654436062061</v>
+        <v>0.04446550875775018</v>
       </c>
       <c r="T11">
-        <v>0.0576654436062061</v>
+        <v>0.05262266323239255</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>12.8253408574688</v>
+        <v>12.8328005</v>
       </c>
       <c r="H12">
-        <v>12.8253408574688</v>
+        <v>25.665601</v>
       </c>
       <c r="I12">
-        <v>0.235598808725162</v>
+        <v>0.2263361086320154</v>
       </c>
       <c r="J12">
-        <v>0.235598808725162</v>
+        <v>0.1785714988930879</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.23604195391044</v>
+        <v>5.889399666666667</v>
       </c>
       <c r="N12">
-        <v>3.23604195391044</v>
+        <v>17.668199</v>
       </c>
       <c r="O12">
-        <v>0.7472984039514368</v>
+        <v>0.8160192454225522</v>
       </c>
       <c r="P12">
-        <v>0.7472984039514368</v>
+        <v>0.8160192454225521</v>
       </c>
       <c r="Q12">
-        <v>41.50334108797074</v>
+        <v>75.57749098709984</v>
       </c>
       <c r="R12">
-        <v>41.50334108797074</v>
+        <v>453.4649459225991</v>
       </c>
       <c r="S12">
-        <v>0.1760626137331734</v>
+        <v>0.1846946205777741</v>
       </c>
       <c r="T12">
-        <v>0.1760626137331734</v>
+        <v>0.1457177797807117</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>12.8253408574688</v>
+        <v>12.8328005</v>
       </c>
       <c r="H13">
-        <v>12.8253408574688</v>
+        <v>25.665601</v>
       </c>
       <c r="I13">
-        <v>0.235598808725162</v>
+        <v>0.2263361086320154</v>
       </c>
       <c r="J13">
-        <v>0.235598808725162</v>
+        <v>0.1785714988930879</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.09427902202026</v>
+        <v>1.327831666666667</v>
       </c>
       <c r="N13">
-        <v>1.09427902202026</v>
+        <v>3.983495</v>
       </c>
       <c r="O13">
-        <v>0.2527015960485633</v>
+        <v>0.1839807545774479</v>
       </c>
       <c r="P13">
-        <v>0.2527015960485633</v>
+        <v>0.1839807545774478</v>
       </c>
       <c r="Q13">
-        <v>14.03450145058744</v>
+        <v>17.03979887591584</v>
       </c>
       <c r="R13">
-        <v>14.03450145058744</v>
+        <v>102.238793255495</v>
       </c>
       <c r="S13">
-        <v>0.0595361949919886</v>
+        <v>0.04164148805424141</v>
       </c>
       <c r="T13">
-        <v>0.0595361949919886</v>
+        <v>0.0328537191123762</v>
       </c>
     </row>
   </sheetData>
